--- a/unityProject2DActionGameA/Assets/Excel/Maneuvar/ManeuverTable.xlsx
+++ b/unityProject2DActionGameA/Assets/Excel/Maneuvar/ManeuverTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\2DActionGameA\unityProject2DActionGameA\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\2DActionGameA\unityProject2DActionGameA\Assets\Excel\Maneuvar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD404C5-E218-4C35-BADC-B9FA20BD8CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F36474C-AC93-44B9-A343-9E05F3259A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6492" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{0AEB9E87-A8FD-4B2E-BE60-C3DB6691D5C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AEB9E87-A8FD-4B2E-BE60-C3DB6691D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Maneuvers" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SwordThrow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sword</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,7 +71,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RainLance</t>
+    <t>LanceThrow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SwordBoomerang</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -122,9 +122,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,14 +446,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.59765625" customWidth="1"/>
     <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
     <col min="5" max="5" width="20.19921875" customWidth="1"/>
     <col min="6" max="6" width="8.796875" customWidth="1"/>
   </cols>
@@ -474,7 +477,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -486,35 +489,35 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -525,13 +528,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
